--- a/data/trans_dic/P10_1_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P10_1_R-Provincia-trans_dic.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,14; 14,32</t>
+          <t>6,84; 15,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,25; 20,71</t>
+          <t>11,96; 21,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,07; 4,97</t>
+          <t>1,22; 5,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,06; 16,41</t>
+          <t>8,26; 17,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,54; 31,15</t>
+          <t>20,41; 30,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,2; 5,74</t>
+          <t>2,36; 5,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,2; 13,93</t>
+          <t>8,69; 13,94</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17,92; 24,66</t>
+          <t>17,44; 24,44</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,08; 4,57</t>
+          <t>2,08; 4,62</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,96; 11,24</t>
+          <t>6,14; 11,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,68; 10,99</t>
+          <t>5,64; 10,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,65; 4,7</t>
+          <t>1,62; 4,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,58; 11,47</t>
+          <t>5,45; 11,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,22; 18,23</t>
+          <t>12,1; 18,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,2; 18,53</t>
+          <t>12,14; 18,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,87; 12,19</t>
+          <t>6,74; 12,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,7; 13,52</t>
+          <t>8,87; 13,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,91; 13,97</t>
+          <t>9,78; 13,62</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,84; 13,88</t>
+          <t>9,72; 14,01</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,76; 8,02</t>
+          <t>4,83; 7,86</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,84; 11,55</t>
+          <t>7,89; 11,5</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,92; 4,54</t>
+          <t>0,97; 4,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,03; 8,24</t>
+          <t>3,04; 8,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 4,31</t>
+          <t>0,93; 4,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,41; 8,22</t>
+          <t>3,23; 7,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,13; 6,49</t>
+          <t>1,99; 6,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,85; 14,74</t>
+          <t>7,77; 14,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,41; 8,58</t>
+          <t>3,42; 8,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,12; 11,04</t>
+          <t>6,14; 11,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,93; 4,6</t>
+          <t>1,81; 4,6</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,03; 10,23</t>
+          <t>6,22; 10,51</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,45; 5,64</t>
+          <t>2,61; 5,71</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,5; 8,58</t>
+          <t>5,45; 8,66</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,35; 4,9</t>
+          <t>1,13; 4,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,83; 9,92</t>
+          <t>5,81; 9,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,43; 12,21</t>
+          <t>6,19; 12,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,52; 9,46</t>
+          <t>3,64; 9,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,28; 10,82</t>
+          <t>5,22; 11,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,33; 24,91</t>
+          <t>18,59; 24,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,84; 25,35</t>
+          <t>16,71; 25,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,19; 14,41</t>
+          <t>7,98; 14,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,71; 7,04</t>
+          <t>3,7; 7,14</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,77; 16,62</t>
+          <t>12,67; 16,49</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12,36; 17,84</t>
+          <t>12,57; 17,86</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,91; 11,4</t>
+          <t>6,77; 11,19</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,78; 10,04</t>
+          <t>3,85; 10,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,47; 8,78</t>
+          <t>2,31; 8,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,34; 7,9</t>
+          <t>2,3; 8,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,64; 5,49</t>
+          <t>1,5; 5,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,35; 11,85</t>
+          <t>3,94; 11,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,32; 24,16</t>
+          <t>13,09; 23,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,51; 11,16</t>
+          <t>4,44; 11,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,28; 13,04</t>
+          <t>7,03; 12,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,77; 9,6</t>
+          <t>4,62; 9,58</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,83; 15,23</t>
+          <t>8,74; 14,98</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,0; 8,8</t>
+          <t>4,04; 8,65</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,07; 8,61</t>
+          <t>5,14; 8,74</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,37</t>
+          <t>0,32; 2,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,28; 12,62</t>
+          <t>5,3; 12,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,54; 11,16</t>
+          <t>4,54; 11,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,6; 8,42</t>
+          <t>3,83; 8,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,34; 7,54</t>
+          <t>2,33; 7,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,02; 15,45</t>
+          <t>8,19; 15,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,01; 19,0</t>
+          <t>10,08; 18,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,27; 11,44</t>
+          <t>6,2; 11,4</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,77; 4,58</t>
+          <t>1,73; 4,57</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>7,4; 12,46</t>
+          <t>7,64; 12,95</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>8,21; 13,94</t>
+          <t>8,14; 14,32</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>5,58; 8,92</t>
+          <t>5,61; 8,89</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,88; 7,63</t>
+          <t>4,04; 7,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,4; 7,17</t>
+          <t>3,46; 6,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,69; 8,98</t>
+          <t>4,52; 8,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,68; 12,2</t>
+          <t>6,92; 12,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,41; 12,89</t>
+          <t>8,1; 13,02</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,12; 10,43</t>
+          <t>6,12; 10,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,19; 15,6</t>
+          <t>10,42; 15,53</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,59; 16,45</t>
+          <t>8,0; 16,68</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,68; 9,73</t>
+          <t>6,64; 9,74</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>5,22; 8,0</t>
+          <t>5,25; 8,05</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>8,15; 11,58</t>
+          <t>8,14; 11,55</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>8,88; 13,63</t>
+          <t>8,39; 13,51</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>6,36; 10,38</t>
+          <t>6,13; 10,3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,96; 11,21</t>
+          <t>7,05; 11,29</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,79; 5,69</t>
+          <t>2,94; 5,73</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,99; 7,39</t>
+          <t>4,01; 7,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,75; 11,88</t>
+          <t>7,76; 11,94</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>13,51; 18,71</t>
+          <t>13,57; 18,85</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,13; 10,35</t>
+          <t>6,19; 10,16</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>13,9; 18,97</t>
+          <t>13,75; 19,0</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>7,45; 10,36</t>
+          <t>7,51; 10,53</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>10,93; 14,59</t>
+          <t>10,99; 14,27</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>5,06; 7,5</t>
+          <t>4,95; 7,53</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>9,28; 12,63</t>
+          <t>9,32; 12,56</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>5,25; 6,93</t>
+          <t>5,29; 6,93</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,28; 8,18</t>
+          <t>6,27; 8,11</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,26; 6,95</t>
+          <t>5,28; 6,91</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,35; 7,13</t>
+          <t>5,39; 7,14</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>8,41; 10,46</t>
+          <t>8,56; 10,53</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>13,61; 15,89</t>
+          <t>13,39; 15,85</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>10,96; 13,47</t>
+          <t>11,09; 13,35</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>10,36; 12,72</t>
+          <t>10,25; 12,71</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>7,11; 8,48</t>
+          <t>7,09; 8,42</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>10,2; 11,76</t>
+          <t>10,19; 11,76</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>8,5; 9,9</t>
+          <t>8,55; 9,91</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>8,32; 9,82</t>
+          <t>8,35; 9,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P10_1_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P10_1_R-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,84; 15,03</t>
+          <t>7,18; 14,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,96; 21,58</t>
+          <t>12,03; 21,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,26; 17,03</t>
+          <t>8,52; 16,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,41; 30,96</t>
+          <t>20,19; 31,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,69; 13,94</t>
+          <t>8,47; 14,14</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17,44; 24,44</t>
+          <t>17,53; 24,71</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,14; 11,4</t>
+          <t>6,07; 10,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,64; 10,91</t>
+          <t>5,6; 11,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,62; 4,52</t>
+          <t>1,65; 4,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,1; 18,81</t>
+          <t>12,22; 18,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,14; 18,45</t>
+          <t>12,0; 18,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,74; 12,07</t>
+          <t>6,9; 12,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,78; 13,62</t>
+          <t>9,71; 13,85</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,72; 14,01</t>
+          <t>9,53; 13,74</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,83; 7,86</t>
+          <t>4,89; 7,96</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,97; 4,96</t>
+          <t>1,14; 4,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,04; 8,21</t>
+          <t>3,06; 8,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,93; 4,51</t>
+          <t>0,86; 4,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,99; 6,09</t>
+          <t>1,88; 6,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,77; 14,58</t>
+          <t>7,73; 14,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,42; 8,41</t>
+          <t>3,32; 9,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,81; 4,6</t>
+          <t>1,86; 4,6</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,22; 10,51</t>
+          <t>6,2; 10,29</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,61; 5,71</t>
+          <t>2,46; 5,75</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,13; 4,88</t>
+          <t>1,28; 4,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,81; 9,97</t>
+          <t>5,71; 9,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,19; 12,39</t>
+          <t>6,48; 12,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,22; 11,16</t>
+          <t>5,32; 10,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,59; 24,76</t>
+          <t>18,49; 24,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,71; 25,63</t>
+          <t>16,6; 25,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,7; 7,14</t>
+          <t>3,72; 7,14</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,67; 16,49</t>
+          <t>12,8; 16,65</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12,57; 17,86</t>
+          <t>12,37; 17,82</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,85; 10,61</t>
+          <t>3,82; 10,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,31; 8,49</t>
+          <t>2,39; 8,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,3; 8,36</t>
+          <t>2,33; 7,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,94; 11,68</t>
+          <t>4,17; 11,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,09; 23,93</t>
+          <t>13,16; 23,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,44; 11,77</t>
+          <t>4,43; 11,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,62; 9,58</t>
+          <t>4,67; 9,64</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,74; 14,98</t>
+          <t>8,72; 15,13</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,04; 8,65</t>
+          <t>4,19; 8,98</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,99</t>
+          <t>0,35; 3,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,3; 12,21</t>
+          <t>5,31; 12,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,54; 11,34</t>
+          <t>4,18; 10,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,33; 7,22</t>
+          <t>2,33; 7,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,19; 15,4</t>
+          <t>8,08; 15,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,08; 18,78</t>
+          <t>9,79; 19,1</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,57</t>
+          <t>1,66; 4,75</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>7,64; 12,95</t>
+          <t>7,43; 12,88</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>8,14; 14,32</t>
+          <t>8,11; 13,74</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,04; 7,85</t>
+          <t>3,79; 7,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,46; 6,88</t>
+          <t>3,32; 6,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,52; 8,78</t>
+          <t>4,65; 8,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,1; 13,02</t>
+          <t>8,35; 13,17</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,12; 10,62</t>
+          <t>6,2; 10,56</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,42; 15,53</t>
+          <t>10,36; 15,86</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,64; 9,74</t>
+          <t>6,67; 9,72</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>5,25; 8,05</t>
+          <t>5,24; 8,05</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>8,14; 11,55</t>
+          <t>8,14; 11,5</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>6,13; 10,3</t>
+          <t>6,21; 10,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7,05; 11,29</t>
+          <t>6,66; 11,47</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,94; 5,73</t>
+          <t>2,85; 5,61</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,76; 11,94</t>
+          <t>7,76; 12,36</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>13,57; 18,85</t>
+          <t>13,63; 18,88</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,19; 10,16</t>
+          <t>6,02; 10,17</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>7,51; 10,53</t>
+          <t>7,62; 10,59</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>10,99; 14,27</t>
+          <t>10,91; 14,31</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>4,95; 7,53</t>
+          <t>4,89; 7,51</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>5,29; 6,93</t>
+          <t>5,26; 6,92</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,27; 8,11</t>
+          <t>6,27; 8,04</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,28; 6,91</t>
+          <t>5,3; 6,96</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>8,56; 10,53</t>
+          <t>8,46; 10,34</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>13,39; 15,85</t>
+          <t>13,46; 15,91</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>11,09; 13,35</t>
+          <t>10,96; 13,37</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,7 +1884,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>7,09; 8,42</t>
+          <t>7,18; 8,49</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
@@ -1894,7 +1894,7 @@
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>8,55; 9,91</t>
+          <t>8,52; 10,05</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
